--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/53_Konya_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/53_Konya_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C21042B-EDCC-4EE2-9CF8-12916F4A5EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CF3813-305B-4329-87CB-BAF4A4CB2A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{AF85B839-AC22-413B-B3D8-4A0A1780115E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{2DE86FC2-70EC-4987-AB8D-3F581AC86897}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -958,13 +958,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E650F02A-312A-4C0C-9105-6332E5A1C177}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{08F2F08B-1F7B-4D5E-9BB8-6A196EB57129}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{277B96AE-E82D-494B-A0E7-DBFD63A0134D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0B349E2A-6B2A-40C2-B8B3-52C9FB63359A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{78E29397-722F-4F6A-B7EB-962C828F7341}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5F5F3049-3972-4DE2-B2B2-3F5993A62636}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{21D4C392-2550-4D4A-9087-FE38E97E9185}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{31B13E82-2868-40C1-9940-A2951891903A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F0801CAC-16FA-4E6A-B507-C501A708F1B5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{26DAC604-09DB-4828-9080-8A43CD58C814}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B682F3E1-77BA-49A0-B337-A33A0C1CBB1B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D43B65D0-AB1A-4526-AA78-F72C8F132A14}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{48D4A89F-0844-42CE-8CA3-2DA865EE968B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{183A7D5A-B76D-4876-9928-FE920A995138}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F0E6D9-800B-4240-97D1-3BEA382AB508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5124B92F-4CBB-454B-B371-E9C5DE94F914}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2620,18 +2620,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D60DA15B-D3F2-46A2-BC23-8FFB99320D6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6EC4C4D-A97D-4808-A8B8-210F19D9CD46}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DAD6DEE5-27E9-42DC-8CCB-4EB7D28CAF62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C77082B5-4A46-421D-88D6-FF8E8C6E6E8B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E8F20D2B-2AFD-40A9-963A-E106A2A1D1F1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E92723C0-4CA0-421D-A2C9-7DEF234E6F09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BD37ED7-FA1E-4635-9ED5-87D93A297398}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDF1F808-ADCD-482D-98EE-622E4CE870F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D617611-0A0B-4542-9B44-5408C91FCDD2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08FE8008-6FA5-4944-9730-E65B8523DF00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA98392F-8348-4749-BA89-6B03C422A08F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53D0FF0A-84D9-4107-BBEC-369E456658C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF7F23E7-129C-419A-9AB0-F882C32D0397}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C99F6D87-67E5-4826-BF3D-2EE76B770BA4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3A830E03-9EB8-4C07-95A5-E99DC2284271}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A68CFE7-BFB1-49A5-9F53-AC684B11B838}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{95BFA456-18BB-4FB2-BF01-4ACA707E20B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{507B1214-FCC7-4B22-87C0-DBF69AC77A48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9234B5F6-11F2-4A4B-BF92-2CACD8A31354}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06713073-7F41-4FFC-B6C3-5D6001610DD8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC3DC784-0263-4FCF-94E3-C0FA59B41258}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4EAB464-CA50-4530-A757-4A251581E1E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E9439FD-81E0-4239-8515-74313DFA3577}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{693D9F3D-7192-47ED-AE61-12515E517034}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2644,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA991FE-4699-4A9F-9C91-14D8869E2A75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E009B14-921A-4C0C-8A6B-3DDD0FC490E7}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3912,18 +3912,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9CEBE2D-6FB6-4EF9-AB03-6EF5242AFB42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20F03FCB-BA70-4094-B330-B2D53DD35902}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DD65BA48-D21B-40B6-85F4-32134A4189FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DA1BBF1-2DD2-4C78-888C-1F60184A697C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A168FC89-52F3-40F2-A270-68127E3BA2F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75FD9784-FDFB-41D2-A1A8-A5D62194A548}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E58D105-5B6B-416E-B2CF-A166F369A174}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9B2640B-4AB8-4AF8-9CD5-A4A4F8F82A8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1F18F08-CD4E-4091-8C5F-DCCB49030B96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67240E6C-5E36-4CBA-A915-560DC0BF3941}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F11917B-FBFD-4721-9895-0E370AA9EC86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5695C30-69F6-4CA7-BBC7-AE000E97D11C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC067122-1079-4BEF-9632-2CAAA32851C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55FC324F-DB22-46DB-9B33-F889671EAFA5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2AC510D2-B270-4BA4-8F3C-C0E90437E8E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11250C03-8BA4-4820-83E6-A04E8B97233A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5FAE0449-618F-4AC3-BD74-199FF03DF7BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24E4D9D1-91E9-4C5A-AF2C-521833894748}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30F39A0F-6EBC-4C10-827E-F3B29B24F2CE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{201D47CC-19F8-4053-A72D-962F811D9CD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57053059-1AE9-435D-8406-EB2E2910A525}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78105235-369A-4160-BC5D-53C7C4CE51E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1A852C2-51FA-4B39-A4EB-006C4E95F9FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30F8A50B-A4B3-4FFD-9FF4-072000AF6DF7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3936,7 +3936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED7A966-BBB6-4EE0-8499-6940DA9C12D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7195D3-24BD-455A-A459-93695C41C067}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5200,18 +5200,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C00804E-9953-408E-BF16-F63133E5B108}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B1394CD-9180-4CFE-8B62-6DA4B6E2DE60}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9910EF9-FD15-40E5-9103-27A0EF379815}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8D812DC-9C1C-4951-902B-DDC5EE5176BB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{16E25574-1A9D-4650-A383-F879AE4FB4F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{488F3F88-5FDF-4AD0-9A9C-061728483326}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17AE0418-3EF7-4F6C-9F08-5C4E78B444FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{928E59B6-94DD-4E11-9A90-D3A9A43C6145}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41C4A427-861F-44E3-A15B-39BC1B8A9E81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA486445-AC6C-4F74-8CA5-7A0196E8CC46}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41AD4EAD-490E-449A-8A99-C5C882730695}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF0EA2F1-C237-4654-8EE2-8E5571D99BB7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D08FF1A-2C41-44F2-92A0-88B753EC9E29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5578F15-281A-4632-897B-E104768C3458}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E2AC8E0-41F8-4A74-932C-22EA576B2EEA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3CA6E1E-4DB3-4183-9938-586A71210653}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9C0C51EC-18D8-49DB-A6A7-4B82C2A2C572}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF36408F-ED92-4412-8827-0A342947DEFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50417ACD-1524-49F1-885E-447186960619}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6EE1DC0-22C9-4368-84BF-5F8A12FF2862}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{973E0904-7992-4F5D-BA13-58AB33FB36F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7992EBF7-042C-4AE0-B61A-493A264A73C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62D80BE5-528B-4EC3-94C9-44E82BD23768}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6BD43B5D-600B-4BF4-B0C1-72D73EB47BF7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5224,7 +5224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698EF1B-7093-41B2-9232-3ADF5A4EEBC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3B1D63-156A-46DF-BB21-2E6AA66D6C5B}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6476,18 +6476,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C6B9FB4-3AAD-42A6-A229-ACD6B203EA0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDD72EC6-2D87-493F-A33E-76E538ED55B9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1CCF44A-5F73-467B-A3C5-AD6478E9913A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B70C19F8-21D7-403F-B009-FF67DE2C5DE3}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{119FDD8F-3E3F-4821-A2D4-9B9B44ED1CB9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49B4D4A9-7172-4C01-ADBD-7CDE3AA398FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7691A76-ADD5-4444-B988-AB0492D86683}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73B1F8D4-E834-4010-BAF0-E809B3C1FEC0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A967808-8B17-4083-BCCD-86F543E242A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBFFB179-1073-49B8-9541-24BF5FFDD9F7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{395A28D3-8762-4FD1-BF92-D396AB55EC05}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5306C79-0542-4A82-B140-7317CC5E64DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82110B32-D215-4811-9A36-39434F99BF1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82DBB28C-488C-4DD9-8C61-58A03F80B352}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7078ABB-6D2E-4E3C-8D65-E8669BFA5394}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{473E4F56-9CFE-408C-9CC8-A8AEED1B9E92}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BF6BD22B-FA38-4AF4-B17B-A910954D600A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A9C7B9A-9B1B-473D-99EA-297A94C6CFC4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6157D3C-8206-42A7-8B3F-5043E768F9B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CBAB9F2-13EA-41A7-91DB-CB5B30773352}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E4360B9-7B0D-4E12-A771-87FE9E7FC48B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27DF9510-FEAA-4782-8FDB-4567D59DF97D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C46229B5-586D-4805-9DC3-D6CCC4987B58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{045EA851-ED7A-41DB-AA4D-AD878086810F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6500,7 +6500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A29139-9623-44B7-BEC8-02954D7733F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2173CFB0-C3A5-4D52-B918-EA3E9E10ED86}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7783,18 +7783,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4F55325-70CD-4A02-B44F-363108FEE11D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9B0B9A3-199B-4D02-B819-0455AD746862}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86C120F5-761A-4570-804A-A99036FE079D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F466860-E562-4BF8-8694-4F7702920900}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6F02B2E6-8370-497B-AD8F-A0D429FA8DE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6064B58-75C0-43A7-AF3D-635B8192835B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F57A345-504A-4205-89F8-22D36EDACD4B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2BEE117-DED4-4646-ACB7-8D0C95A08344}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05343DD0-0485-4223-B347-93968DD734C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA0437C3-4E96-4EC5-99F0-31EEA4472BB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0B29B6E-7DBC-4206-A416-7BD35E2BE390}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{20714EB7-F7FF-4FD8-AE5F-E49DD9028CA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D455225-758C-4B18-9A48-BDF1769E5278}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC8A6F3C-470F-42C0-AA00-13C0D5597B91}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE6052C5-7B36-4039-8F27-72AAC69E1B10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5169D45-40D8-4E6E-B22A-8EB731A1665F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0746AAC5-BE21-47FD-A0F1-C71157C9E699}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49E5514F-2B8F-4B1C-9D03-2BB0A28D99EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FD38546-8646-4F7F-A65D-4718828A48AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA80311B-A329-467F-8DDF-B949B3661D9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A16D6063-677C-4068-9827-2549749F01FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E321B22C-A2D3-4FD0-8D65-9E688F8B9328}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6895E896-268D-43E0-8450-1E9C824AA9BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC7B6528-8A59-407F-83D3-6EE38B89F0F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7807,7 +7807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E998FCF0-AD1A-486F-9B65-19723E55F2D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A553C0E2-3AEB-4476-85CB-140A7F029FA6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9090,18 +9090,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E075E39C-6EB4-418F-9EA7-E5464FF1D850}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A24D56A7-A6F4-425A-A31A-9DA9E7ABDCD6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1011C6B0-2FC1-47F2-9CF7-B2BDA846EAA2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A024B18-FD59-4DC0-9E05-B666F7744BF6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{582F1F34-550D-4A48-B303-B656CE51B43E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{050714E6-E83D-4BE4-9E17-EC201F6BA248}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80C624F6-7A0A-4602-8739-3ACFC58545AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5D0863CA-8DC0-477E-8E40-2F60E84A056C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74A2325D-A7CE-4B0E-9A75-578EF664A604}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D973AA5-3F6B-4AF4-B849-BE548E240D02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DE6D569-5391-463B-9AB5-39E4534C9E6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{663658ED-84B6-42CC-B992-B1C3A3719837}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BBB09E3-0311-4CFA-86F0-9E601DE1A70D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F4444DC-A868-4FC6-B046-0DF5217E6789}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{344135D7-FE71-49E8-95D3-01706EDC06D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1AFAE358-79C8-42C1-81FE-768BBAE3FEB5}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{29A4C028-B0D5-4FD7-88A2-28E56FB16FD7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9A0758A-6E77-45B1-A06D-6C9E81557291}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9C76751-5A18-4810-9D21-B4B038EF8B2D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71E63B8C-12BB-4DB5-8FFC-4BD91B330464}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8646860C-8E55-45DA-A8F7-12F11CAF1010}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36146805-75D2-43AB-BA95-62085140123A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6984FAF7-5ED6-4BBD-944B-E9DD84BD80A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0099D98E-42C2-4725-92A0-B0DECAA72766}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9114,7 +9114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC459AC4-AA71-44A9-84BA-7C16EC59F204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A11E520-1F21-4948-8A79-62C3971AAB24}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10395,17 +10395,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01496FC6-911F-4B5A-8945-44C7D3BDD895}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E87306A-1F36-420D-96FC-166ED5BD9A9A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4EF22FC4-0191-45EE-95D5-9BF6285FF1CA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51E44348-09E0-44AE-9087-C29C0AD0CEE8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{37AD847E-68C9-40A1-BDBA-F317079540D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CECB1520-FEDB-4172-B606-81B57210B557}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{289217E9-2196-4E4B-8038-21289C0E7821}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{50957CF7-0873-4D4D-BA83-5A4A6FAC9106}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71D39FF2-AF73-463F-BA73-4CC45DD38F4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B52F3A4-2423-418A-AA2C-343C01734702}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5088ED77-1D11-4D69-8E97-F0A6EEC95928}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3967A57-2347-4CFC-AA09-551253C4108C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92E5B018-F902-4E38-9017-09F58BED0ED9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{723263D6-253C-4FA2-B937-A3E4E0688951}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8101581-D714-4725-819F-072CB7793989}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E42E35F6-7911-4290-9DB1-4A40A597D21A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86B41C5D-BAA8-487E-BA2A-93060E16D02F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D454C21-0012-4C67-A5AD-EA69A0CCABB1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AFFE0D5-43EA-419D-8B8C-64D16275B12A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14AC71CE-A611-4C73-BB99-507E8CCDE7AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F193EF20-0474-475F-A9F5-D61827AEE53F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{128A7FC2-4890-4231-869C-F8F70ED18EC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10418,7 +10418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B92B01-7F51-468F-B7BF-64078FA7757F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AC5256-DBE3-4830-AEF5-0FB24853C281}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11702,18 +11702,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42F81F2D-7D5F-49B4-8395-ABFF997A1540}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF7B4C38-C9D1-4CD9-BA9B-08974C67C33A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E07CA05-FF3A-4FA1-ABAD-01EBB2E52221}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97030673-ED33-4135-B99E-CAEA13A17506}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3DB64184-D765-42A6-9F48-F49344E4C927}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A19E29AC-E475-4F5A-9F6F-246303EDB1DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D9AF857-CB65-42F9-BA50-15F51520B3E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{120C156C-2C2E-4C45-9DCB-3ED48D7FA22C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14CCBF0D-1544-46C2-87C3-06DE13EE0D97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F23EB4B-AEC4-46B0-9C64-A4EA8DCEB75A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D856244-27D6-439C-9DCF-A83A80710F11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01D967AE-C9AC-4B13-A5CE-6542826E7248}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5EF73E62-855E-4287-A490-0B2BE6D678B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F985CC8-1F7F-4AF2-AE82-E3ADE046BE47}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0816E10-6F3C-4470-9DC5-CD88C0FA9B55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8AD922F7-B7B3-4029-99FE-BEA19960C5BB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8B28030B-845D-40D0-972E-68CE3AC7FF6A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80D7960E-FE18-4A65-AF4D-DCB30FD9005B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{642A0FD5-E679-4C5B-8F3F-ECC230332AEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77EC4240-CEAD-485E-AC08-9F637E59B278}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6C2E8C6-C37A-4075-9F5D-43ACEDDAD7AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67336F04-FEF2-43AC-91E8-1C93CBEBB227}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0010743A-B035-463D-90FB-9579397AB9EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB871984-802A-4539-8F24-558E8FF785FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11726,7 +11726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3803E7-7900-4C43-AAF4-FF24E5CAC326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966B013E-B3A7-4F3D-B545-5C2090B456CD}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13010,18 +13010,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C58CADC6-1C4B-4C6D-A27A-167139EE0B82}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3757DD1B-4F3A-406A-B79F-E509120B6DDE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40F7D3F2-A419-4129-B4C2-7A72D03C675C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF374F95-2B2C-4499-8E85-CDB8D9C8C5AE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B4A0EB69-3319-4E26-8CAA-9DF582AB581E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69C4F0C3-49FC-44A9-97BC-4357139C6FF2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95E68DED-9C86-4ECA-8D45-82E26615266E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA7279A7-7C60-4BD6-875C-14179A24717C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21FC4724-0DDC-4786-AABC-54E71B65EA2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17F5F904-68D2-4A09-AC29-A33A0C7D5E38}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{283FFD06-981A-490B-8D7B-4FB4C6263160}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD72AAB1-DF7E-468A-BB74-05B85B46F8F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{042353CF-67C2-410F-8B10-6ECEC1DFD425}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A543265-1FA6-4F12-BA36-5B57665FD382}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{20E99484-3F9D-469B-84FF-449A73734D59}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CCD4770-F060-426E-B28E-30AC289A4832}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{920C5F82-089A-454B-A03A-49E9063A0D7A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C599046-2B55-4F04-B2E4-90D231667F11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{896F7918-62B2-4183-9C6B-D9BB31A66965}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA044184-C202-40C2-9689-B1A768BEDF2E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E9C880C-FF28-49C9-86C8-7029F421D6D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27C57384-0BCB-4A9D-892A-3E9862095C62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67E8D08B-09B0-49D3-9C74-0D8FC7323A05}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C73B873-99E5-4DCC-AE38-20A989ED8B15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13034,7 +13034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6EDE07-800A-436D-8ABE-E5CDDC4206EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDA7672-9C19-4D91-B9B9-137BF16B404E}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14314,18 +14314,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5068F972-2CD7-45AB-8878-7C0254EC2A4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C2D8125-1D5F-4C4E-82C4-5E668E851F3E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE92AC2E-9BB4-4A23-BDB0-64B1C277DD57}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39CA134E-E642-4054-98D8-1A1AF2057316}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{00708E8E-8020-447F-8C7A-35E0B24551AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E59F5F71-C0B4-4C1A-8EFD-EE23B7264293}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8174835-00E6-4549-AB30-22B4EA3AE5CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A15EE257-F3A4-4397-B052-C061A5B83761}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E47C201-E738-490F-9469-33A98DA128A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CD965E3-AB92-4250-A49C-210761B3D50C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E1A6AFB-1E0A-47E9-8EC0-9F23793E8EBE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D1178CD-E573-4610-948D-BFB3EBC562E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E33EF03-31C9-4EE3-AB16-AF5CBB1CF39F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A74406A9-D96C-49EF-AC57-CCD8E63C6ACB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B8DB7E25-3CB6-4848-9875-B5E9ACB9EE33}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4560F029-A5E6-4D74-84E3-C24E6CFE2381}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5DDDCA95-B84B-4060-9281-317D29A40728}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD4EEF0C-8399-48DB-AA27-F6E1F7C6DC88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1795FFC-4DED-4EB9-9A0A-2998B28C1EA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3A2D7B6A-420B-475F-B5FC-29704EF9ADF8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC2589E9-4BDE-4866-ACC4-B1BF7836CA11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4795B2DF-0B7D-47A1-863E-547999EF1751}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DFA2FFD-1DAF-4DC4-BEAE-87FF9BA21C3F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3CE41457-89BF-43A3-9900-E81278EE247F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14338,7 +14338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91DB897-05E4-4784-ADF5-6B0BCFBA35AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CA65D1-31B5-4802-92E4-ABD9DC8D0593}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15618,18 +15618,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4990F41F-E69B-4B7D-8090-1D5DC5D65607}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F1F693C-A0A8-463F-8FC2-8F1E208C77FC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E22077A5-237E-4D0A-AA6F-2E2410AB2788}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{643CEB20-6114-4E46-A28F-23C53D552338}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4C83C326-5021-481E-82F9-33A7D8D62175}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B722B72-15D5-43D2-9BB8-74A8C2C6327E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12D6C4AE-A523-41D3-9D7F-FBA6DE67F802}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{60F9B0B6-D335-4A04-8E58-802B3B21B5A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{732532F4-9B75-4C8B-8B4A-38A3C1415629}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EAD7E01-900B-4A11-BBC9-05BA336AD9E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F07AA06-2FAB-469E-874E-3A9B29A04F94}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6437A07A-42A9-419C-9866-DD46C66A68B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D501D7E-C143-48D0-9477-D24E4A29E80B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08930EDE-29A7-4435-B8A9-C888966AD4BF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4067B950-0F87-44A6-8F3D-5F2D3DC0DAB2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A22102BA-1874-464A-9705-ADC73FA5A84C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F9291A30-3EA7-4D8E-B78F-B616873B69FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B42996AC-DC50-44E8-93D3-5AD55F55B391}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B91F7584-3506-4015-BB65-14A2733A8441}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E6C87AE-2B2C-487D-9750-095A434CBFF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{105DCF0F-668A-43F3-8DCF-1AF85E378B5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A60E24D8-A02B-4B27-BCFF-F99E123C0E70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95C02EC9-1297-43C7-8999-44B709E9F55F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F603169-0097-4463-81DD-19CA30AFEA8D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15642,7 +15642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4CC5E2-E86B-4347-BC7A-5C5D20519F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7079A5-81D7-47AF-A74F-EA24028DA46C}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16922,18 +16922,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C964255D-1B26-469B-8305-027A379044BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F60190A2-8F35-4B23-ACFD-1001192436CB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FDAE65FC-9208-4AF0-9C4B-7A5031297463}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{393AFF85-1951-4A87-BB60-9F5D0F13C544}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FFD028BF-DA97-425F-85EB-8C3108948CA2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6868E2D1-EA16-45FB-A823-A82D019664D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF11502F-820B-417C-884B-E62329D711FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3582E299-E829-42C5-B203-F06CD3274E71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CD3EC4D-D11D-446A-9E67-3B44B6D0C770}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DC31EAF-67B7-4D3D-B18B-E38F1E5CFBCD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC6B1619-25F7-455D-A629-5B22D240183C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0062BB44-53FE-4606-9914-ABBD1C438545}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F5A9BCD-4E94-4779-816D-6E3063A3C158}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21394B42-947F-4039-A688-7297177E0FBD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C8FCD1F-7E10-40F0-BAC9-CFF3AFD1E048}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBFB632D-58B2-487B-9562-F88C88975660}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AFC34977-D440-4963-B135-41B77C49AE73}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33FAB02C-EC52-44C3-AFE3-CCCC50A30B8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8D12D2B-650F-466C-A23C-AAAA09C3985D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52D85B59-A84D-4367-B396-78768FAC64FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E74CF7EB-FE7C-46E9-9A0C-3C070CAA7B62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31DE1F7A-2181-4C08-BE8B-F6590CC25071}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33492697-4B60-4709-8958-AD4BA3721188}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6771379C-1EDB-473A-841D-2F9DEBF95F48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
